--- a/Documents/ProjectC4_Gantt_Participants.xlsx
+++ b/Documents/ProjectC4_Gantt_Participants.xlsx
@@ -814,7 +814,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,7 +990,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="28"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>

--- a/Documents/ProjectC4_Gantt_Participants.xlsx
+++ b/Documents/ProjectC4_Gantt_Participants.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Tid(h)</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Utöka spellogik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Fullborda design</t>
   </si>
 </sst>
 </file>
@@ -811,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1519,14 +1522,14 @@
         <v>40</v>
       </c>
       <c r="B31" s="22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="36"/>
       <c r="E31" s="23"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
-      <c r="H31" s="23"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
@@ -1538,10 +1541,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" s="22">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="36"/>
@@ -1559,93 +1562,115 @@
       <c r="P32" s="24"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>22</v>
-      </c>
+      <c r="A33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="22">
+        <v>40</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
       <c r="P33" s="24"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="22">
-        <v>25</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>22</v>
+      </c>
       <c r="E34" s="23"/>
-      <c r="F34" s="38"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="38"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="38"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="23"/>
-      <c r="N34" s="38"/>
+      <c r="N34" s="23"/>
       <c r="O34" s="23"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="22">
+        <v>25</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B36" s="15">
         <v>5</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="10" t="str">
-        <f>SUM(B3:B35) &amp; " h"</f>
+      <c r="B37" s="10" t="str">
+        <f>SUM(B3:B36) &amp; " h"</f>
         <v>670 h</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/ProjectC4_Gantt_Participants.xlsx
+++ b/Documents/ProjectC4_Gantt_Participants.xlsx
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1624,7 +1624,7 @@
       <c r="J35" s="38"/>
       <c r="K35" s="23"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="38"/>
       <c r="N35" s="38"/>
       <c r="O35" s="23"/>
       <c r="P35" s="24"/>
